--- a/datascheets/GLCD pin out.xlsx
+++ b/datascheets/GLCD pin out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>pin no. Lcd</t>
   </si>
@@ -85,36 +85,9 @@
     <t>p1.1</t>
   </si>
   <si>
-    <t>p1.2</t>
-  </si>
-  <si>
-    <t>p1.3</t>
-  </si>
-  <si>
-    <t>p1.4</t>
-  </si>
-  <si>
-    <t>p1.5</t>
-  </si>
-  <si>
-    <t>p1.6</t>
-  </si>
-  <si>
-    <t>p1.7</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
-    <t>p3.7</t>
-  </si>
-  <si>
-    <t>p3.6</t>
-  </si>
-  <si>
-    <t>p3.5</t>
-  </si>
-  <si>
     <t>p3.4</t>
   </si>
   <si>
@@ -128,6 +101,36 @@
   </si>
   <si>
     <t>p3.0</t>
+  </si>
+  <si>
+    <t>5v</t>
+  </si>
+  <si>
+    <t>8.4v</t>
+  </si>
+  <si>
+    <t>p4.0</t>
+  </si>
+  <si>
+    <t>p4.1</t>
+  </si>
+  <si>
+    <t>p4.2</t>
+  </si>
+  <si>
+    <t>p4.3</t>
+  </si>
+  <si>
+    <t>p4.4</t>
+  </si>
+  <si>
+    <t>p4.5</t>
+  </si>
+  <si>
+    <t>p4.6</t>
+  </si>
+  <si>
+    <t>p4.7</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +508,9 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -513,6 +519,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
@@ -521,6 +530,9 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -530,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -541,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -552,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -563,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -574,10 +586,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -585,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -596,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -607,7 +619,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -618,7 +630,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -640,7 +652,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -651,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -662,7 +674,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -673,7 +685,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -684,7 +696,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -695,10 +707,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/datascheets/GLCD pin out.xlsx
+++ b/datascheets/GLCD pin out.xlsx
@@ -79,12 +79,6 @@
     <t>FS</t>
   </si>
   <si>
-    <t>p1.0</t>
-  </si>
-  <si>
-    <t>p1.1</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>5v</t>
   </si>
   <si>
-    <t>8.4v</t>
-  </si>
-  <si>
     <t>p4.0</t>
   </si>
   <si>
@@ -131,6 +122,15 @@
   </si>
   <si>
     <t>p4.7</t>
+  </si>
+  <si>
+    <t>-8.4V</t>
+  </si>
+  <si>
+    <t>p0.0</t>
+  </si>
+  <si>
+    <t>p0.1</t>
   </si>
 </sst>
 </file>
@@ -166,8 +166,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -475,7 +476,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -530,8 +531,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -542,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -553,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -564,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -575,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -586,10 +587,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -608,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -619,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -630,7 +631,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -641,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
@@ -652,7 +653,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -663,7 +664,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -674,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -685,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -696,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -707,13 +708,14 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>